--- a/data_year/zb/科技/按登记注册类型和行业分大中型工业企业研究与试验发展(研究与试验发展)活动情况/按登记注册类型分大中型工业企业研究与试验发展项目数.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分大中型工业企业研究与试验发展(研究与试验发展)活动情况/按登记注册类型分大中型工业企业研究与试验发展项目数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,39 +553,83 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>278</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9196</v>
+      </c>
+      <c r="D2" t="n">
+        <v>276</v>
+      </c>
+      <c r="E2" t="n">
+        <v>110044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>184</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6085</v>
+      </c>
+      <c r="H2" t="n">
+        <v>63301</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17230</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11677</v>
+      </c>
+      <c r="K2" t="n">
+        <v>105</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21896</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1724</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10698</v>
+      </c>
       <c r="O2" t="n">
-        <v>70580</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+        <v>145589</v>
+      </c>
+      <c r="P2" t="n">
+        <v>902</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>46882</v>
+      </c>
+      <c r="R2" t="n">
+        <v>13649</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6478</v>
+      </c>
+      <c r="T2" t="n">
+        <v>17853</v>
+      </c>
+      <c r="U2" t="n">
+        <v>147</v>
+      </c>
+      <c r="V2" t="n">
+        <v>657</v>
+      </c>
+      <c r="W2" t="n">
+        <v>25355</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1644</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -602,7 +646,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>87207</v>
+        <v>161226</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -617,7 +661,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -634,7 +678,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>92913</v>
+        <v>192755</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -649,235 +693,103 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>101</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7661</v>
-      </c>
-      <c r="D5" t="n">
-        <v>273</v>
-      </c>
-      <c r="E5" t="n">
-        <v>81535</v>
-      </c>
-      <c r="F5" t="n">
-        <v>92</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3522</v>
-      </c>
-      <c r="H5" t="n">
-        <v>51568</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14918</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9203</v>
-      </c>
-      <c r="K5" t="n">
-        <v>107</v>
-      </c>
-      <c r="L5" t="n">
-        <v>13592</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1462</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4368</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>103234</v>
-      </c>
-      <c r="P5" t="n">
-        <v>763</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>35519</v>
-      </c>
-      <c r="R5" t="n">
-        <v>8107</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3730</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9762</v>
-      </c>
-      <c r="U5" t="n">
-        <v>133</v>
-      </c>
-      <c r="V5" t="n">
-        <v>379</v>
-      </c>
-      <c r="W5" t="n">
-        <v>19088</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1463</v>
-      </c>
+        <v>205146</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>174</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9406</v>
-      </c>
-      <c r="D6" t="n">
-        <v>444</v>
-      </c>
-      <c r="E6" t="n">
-        <v>103285</v>
-      </c>
-      <c r="F6" t="n">
-        <v>122</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5553</v>
-      </c>
-      <c r="H6" t="n">
-        <v>59917</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16455</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11852</v>
-      </c>
-      <c r="K6" t="n">
-        <v>99</v>
-      </c>
-      <c r="L6" t="n">
-        <v>17717</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1703</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6434</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>133852</v>
-      </c>
-      <c r="P6" t="n">
-        <v>955</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>46232</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12850</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6220</v>
-      </c>
-      <c r="T6" t="n">
-        <v>14796</v>
-      </c>
-      <c r="U6" t="n">
-        <v>127</v>
-      </c>
-      <c r="V6" t="n">
-        <v>739</v>
-      </c>
-      <c r="W6" t="n">
-        <v>22671</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1821</v>
-      </c>
+        <v>210997</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>278</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9196</v>
-      </c>
-      <c r="D7" t="n">
-        <v>276</v>
-      </c>
-      <c r="E7" t="n">
-        <v>110044</v>
-      </c>
-      <c r="F7" t="n">
-        <v>184</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6085</v>
-      </c>
-      <c r="H7" t="n">
-        <v>63301</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17230</v>
-      </c>
-      <c r="J7" t="n">
-        <v>11677</v>
-      </c>
-      <c r="K7" t="n">
-        <v>105</v>
-      </c>
-      <c r="L7" t="n">
-        <v>21896</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1724</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10698</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>145589</v>
-      </c>
-      <c r="P7" t="n">
-        <v>902</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>46882</v>
-      </c>
-      <c r="R7" t="n">
-        <v>13649</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6478</v>
-      </c>
-      <c r="T7" t="n">
-        <v>17853</v>
-      </c>
-      <c r="U7" t="n">
-        <v>147</v>
-      </c>
-      <c r="V7" t="n">
-        <v>657</v>
-      </c>
-      <c r="W7" t="n">
-        <v>25355</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1644</v>
-      </c>
+        <v>173298</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -894,7 +806,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>161226</v>
+        <v>187100</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -909,7 +821,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -926,7 +838,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>192755</v>
+        <v>215506</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -941,7 +853,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -958,7 +870,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>205146</v>
+        <v>213215</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -973,7 +885,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -990,7 +902,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>210997</v>
+        <v>242806</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1005,7 +917,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1022,7 +934,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>173298</v>
+        <v>271592</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
@@ -1037,7 +949,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1054,7 +966,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>187100</v>
+        <v>305564</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
@@ -1066,134 +978,6 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>215506</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="n">
-        <v>213215</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>242806</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>271592</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
